--- a/doc/FuncionariosDependentes.xlsx
+++ b/doc/FuncionariosDependentes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="92">
   <si>
     <t>Column_name</t>
   </si>
@@ -637,7 +637,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1097,9 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
       <c r="B14" t="s">
         <v>82</v>
       </c>
@@ -1129,6 +1132,9 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
@@ -1561,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,9 +2965,9 @@
       <c r="J39" t="s">
         <v>30</v>
       </c>
-      <c r="K39" t="e">
+      <c r="K39" t="str">
         <f>CONCATENATE($K$2,".",VLOOKUP($A39,FuncionarioDependentes!$A$2:$K$98,2,0))</f>
-        <v>#N/A</v>
+        <v>FuncionarioDependentes.DependAssMed</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2995,9 +3001,9 @@
       <c r="J40" t="s">
         <v>30</v>
       </c>
-      <c r="K40" t="e">
+      <c r="K40" t="str">
         <f>CONCATENATE($K$2,".",VLOOKUP($A40,FuncionarioDependentes!$A$2:$K$98,2,0))</f>
-        <v>#N/A</v>
+        <v>FuncionarioDependentes.IncapTrabalho</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
